--- a/EjerciciosNormalización.xlsx
+++ b/EjerciciosNormalización.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar.garciae\Desktop\FCT\SQL\Abril26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar.garciae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B1C0E21-BD5A-429D-B287-047F35E4CEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B63641-5DD3-4B57-B550-6012AD1F03D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{4F82F053-FF93-4892-9EE9-DBB519CE0C8B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
   <si>
     <t>Ordenes</t>
   </si>
@@ -262,15 +262,6 @@
     <t>2FN</t>
   </si>
   <si>
-    <t>Articulos</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Detalles_Ordenes</t>
-  </si>
-  <si>
     <t>Cant</t>
   </si>
   <si>
@@ -307,22 +298,70 @@
     <t>Nº</t>
   </si>
   <si>
-    <t>Detalles_Seguro</t>
-  </si>
-  <si>
-    <t>Profesores</t>
-  </si>
-  <si>
-    <t>Asignaturas</t>
-  </si>
-  <si>
-    <t>Libros</t>
-  </si>
-  <si>
-    <t>Detalles_Prestamo</t>
-  </si>
-  <si>
     <t>3FN</t>
+  </si>
+  <si>
+    <t>Tabla Articulo</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>id_orden</t>
+  </si>
+  <si>
+    <t>num_art</t>
+  </si>
+  <si>
+    <t>Tabla cliente</t>
+  </si>
+  <si>
+    <t>Tabla articulo</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>nom_cliente</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matricula </t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>potencia</t>
+  </si>
+  <si>
+    <t>profesor</t>
+  </si>
+  <si>
+    <t>aula</t>
+  </si>
+  <si>
+    <t>curso</t>
+  </si>
+  <si>
+    <t>libro</t>
+  </si>
+  <si>
+    <t>asignatura</t>
+  </si>
+  <si>
+    <t>editorial</t>
+  </si>
+  <si>
+    <t>Libro_editorial</t>
+  </si>
+  <si>
+    <t>Curso_asignatura</t>
+  </si>
+  <si>
+    <t>3FN IGUAL QUE LA 2FN</t>
   </si>
 </sst>
 </file>
@@ -332,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +395,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -401,19 +453,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,7 +819,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,7 +827,8 @@
     <col min="1" max="1" width="15.36328125" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -804,7 +871,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
@@ -996,7 +1063,9 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1007,18 +1076,41 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="8"/>
@@ -1031,90 +1123,87 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>1</v>
+      <c r="A14" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
+      <c r="A16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>75</v>
+      <c r="A17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>76</v>
+      <c r="A18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089271F3-7DA1-4CD0-B019-CACA736B1E85}">
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1140,12 +1229,12 @@
     <col min="11" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -1172,12 +1261,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>15873564</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1204,12 +1293,12 @@
         <v>36972</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="1">
         <v>15873564</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1236,12 +1325,12 @@
         <v>37025</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="1">
         <v>15873564</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1268,12 +1357,12 @@
         <v>36845</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C6" s="1">
         <v>25654758</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
@@ -1300,12 +1389,12 @@
         <v>34856</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
         <v>12365451</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>39</v>
@@ -1324,12 +1413,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>13655665</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>40</v>
@@ -1356,12 +1445,12 @@
         <v>32408</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>22334455</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -1388,28 +1477,46 @@
         <v>32408</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
@@ -1417,47 +1524,150 @@
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="I14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="J14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="K21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="L21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="I24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,20 +1676,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB5E0E4-AEAA-44A2-B68F-CB6D0E46F50F}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
     <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1505,7 +1718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
@@ -1531,7 +1744,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1557,7 +1770,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1583,7 +1796,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1609,7 +1822,7 @@
         <v>40304</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1635,7 +1848,7 @@
         <v>40304</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1661,154 +1874,158 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="K14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="G15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
